--- a/data/RAW/Catch-Effort_Data_Tables_from_reports .xlsx
+++ b/data/RAW/Catch-Effort_Data_Tables_from_reports .xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27217"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandrasmith/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandrasmith/Documents/GP_git/nicoyafisheries.github.io/data/RAW/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="160" yWindow="1180" windowWidth="28640" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="160" yWindow="1180" windowWidth="28640" windowHeight="15540" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="7_spp_GN_enmalle" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="cap_por_arte_2012" sheetId="4" r:id="rId4"/>
     <sheet name="ezfureza_por_arte_y_spp_2012" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1239,6 +1239,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1284,9 +1287,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1567,7 +1567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1617,7 +1617,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="82" t="s">
         <v>4</v>
       </c>
       <c r="C6">
@@ -1818,7 +1818,7 @@
   <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:L8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1847,36 +1847,36 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="85" t="s">
         <v>271</v>
       </c>
-      <c r="D5" s="82"/>
+      <c r="D5" s="85"/>
       <c r="E5" s="50"/>
-      <c r="G5" s="82" t="s">
+      <c r="G5" s="85" t="s">
         <v>272</v>
       </c>
-      <c r="H5" s="82"/>
+      <c r="H5" s="85"/>
       <c r="I5" s="50"/>
-      <c r="K5" s="82" t="s">
+      <c r="K5" s="85" t="s">
         <v>272</v>
       </c>
-      <c r="L5" s="82"/>
+      <c r="L5" s="85"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="83"/>
+      <c r="D6" s="86"/>
       <c r="E6" s="48"/>
-      <c r="G6" s="83" t="s">
+      <c r="G6" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="83"/>
+      <c r="H6" s="86"/>
       <c r="I6" s="48"/>
-      <c r="K6" s="83" t="s">
+      <c r="K6" s="86" t="s">
         <v>270</v>
       </c>
-      <c r="L6" s="83"/>
+      <c r="L6" s="86"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
@@ -1910,31 +1910,31 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="97">
+      <c r="C8" s="82">
         <v>3491.03</v>
       </c>
-      <c r="D8" s="97">
+      <c r="D8" s="82">
         <v>43.8</v>
       </c>
-      <c r="F8" s="97" t="s">
+      <c r="F8" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="97" t="s">
+      <c r="G8" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="97" t="s">
+      <c r="H8" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="97" t="s">
+      <c r="J8" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="97" t="s">
+      <c r="K8" s="82" t="s">
         <v>206</v>
       </c>
-      <c r="L8" s="97" t="s">
+      <c r="L8" s="82" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3421,26 +3421,26 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="87" t="s">
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="89"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="92"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C5" s="35" t="s">
@@ -3614,7 +3614,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="83" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="12">
@@ -3928,7 +3928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
@@ -3962,13 +3962,13 @@
       <c r="C6" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="90" t="s">
+      <c r="D6" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="91"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="94"/>
       <c r="I6" s="16" t="s">
         <v>74</v>
       </c>
@@ -3999,7 +3999,7 @@
       <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="83" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="31">
@@ -4335,17 +4335,17 @@
       <c r="D23" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="E23" s="92" t="s">
+      <c r="E23" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="94"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="97"/>
       <c r="N23" s="30" t="s">
         <v>275</v>
       </c>
@@ -4386,7 +4386,7 @@
       <c r="N24" s="56"/>
     </row>
     <row r="25" spans="2:14" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="99" t="s">
+      <c r="B25" s="84" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="72">
@@ -4812,15 +4812,15 @@
       <c r="C40" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="95" t="s">
+      <c r="D40" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="91"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="94"/>
       <c r="K40" s="76" t="s">
         <v>275</v>
       </c>
@@ -5018,7 +5018,7 @@
       <c r="K47" s="57"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B48" s="98" t="s">
+      <c r="B48" s="83" t="s">
         <v>41</v>
       </c>
       <c r="C48" s="57">
@@ -5198,10 +5198,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5209,26 +5209,26 @@
     <col min="2" max="2" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C4" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="92"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="95"/>
       <c r="H4" s="38" t="s">
         <v>81</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="16" t="s">
         <v>0</v>
       </c>
@@ -5256,7 +5256,7 @@
       <c r="H5" s="40"/>
       <c r="I5" s="40"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
         <v>82</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>43</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
         <v>44</v>
       </c>
@@ -5328,8 +5328,8 @@
         <v>957</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="98" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="83" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="31">
@@ -5353,8 +5353,12 @@
       <c r="I9" s="31">
         <v>3657</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <f>cap_spp_intGN_2012!C8/I9</f>
+        <v>0.95461580530489476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
         <v>3</v>
       </c>
@@ -5380,7 +5384,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
         <v>64</v>
       </c>
@@ -5406,7 +5410,7 @@
         <v>8325</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="24" t="s">
         <v>76</v>
       </c>
@@ -5424,7 +5428,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="21" t="s">
         <v>77</v>
       </c>

--- a/data/RAW/Catch-Effort_Data_Tables_from_reports .xlsx
+++ b/data/RAW/Catch-Effort_Data_Tables_from_reports .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="160" yWindow="1180" windowWidth="28640" windowHeight="15540" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="160" yWindow="1180" windowWidth="28640" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="7_spp_GN_enmalle" sheetId="1" r:id="rId1"/>
@@ -1565,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1641,172 +1641,197 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
+      <c r="B7" s="82"/>
       <c r="C7">
-        <v>166</v>
+        <f>C6*1000/ezfureza_por_arte_y_spp_2012!$K$9</f>
+        <v>238839.54019300893</v>
       </c>
       <c r="D7">
-        <v>258</v>
+        <f>D6*1000/ezfureza_por_arte_y_spp_2012!$K$9</f>
+        <v>223126.41254873204</v>
       </c>
       <c r="E7">
-        <v>232</v>
+        <f>E6*1000/ezfureza_por_arte_y_spp_2012!$K$9</f>
+        <v>161321.4438145762</v>
       </c>
       <c r="F7">
-        <v>142</v>
+        <f>F6*1000/ezfureza_por_arte_y_spp_2012!$K$9</f>
+        <v>231506.74729234638</v>
       </c>
       <c r="G7">
-        <v>199</v>
-      </c>
-      <c r="H7" s="2">
-        <v>9.0999999999999998E-2</v>
-      </c>
+        <f>G6*1000/ezfureza_por_arte_y_spp_2012!$K$9</f>
+        <v>213698.53596216589</v>
+      </c>
+      <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="D8">
-        <v>139</v>
+        <v>258</v>
       </c>
       <c r="E8">
-        <v>152</v>
+        <v>232</v>
       </c>
       <c r="F8">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="G8">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="H8" s="2">
-        <v>6.4000000000000001E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D9">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="E9">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="F9">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="G9">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="H9" s="2">
-        <v>6.2E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="D10">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="E10">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F10">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="G10">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="H10" s="2">
-        <v>4.1000000000000002E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D11">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E11">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="F11">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G11">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="H11" s="2">
-        <v>3.4000000000000002E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>98</v>
+      </c>
+      <c r="D12">
+        <v>78</v>
+      </c>
+      <c r="E12">
+        <v>78</v>
+      </c>
+      <c r="F12">
+        <v>47</v>
+      </c>
+      <c r="G12">
+        <v>75</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>51</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>89</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>84</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>69</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>73</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H13" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C14" s="5">
         <v>1783</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D14" s="5">
         <v>2178</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E14" s="5">
         <v>2485</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F14" s="5">
         <v>2349</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G14" s="5">
         <v>2199</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H14" s="6">
         <v>1</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5200,7 +5225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
